--- a/tradeLogic.xlsx
+++ b/tradeLogic.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WAP\Documents\wap\statArbi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75155617-00A8-4F1B-A5B8-69CC143FE31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20980" yWindow="2150" windowWidth="13890" windowHeight="15460" xr2:uid="{A4D77BCD-FFE5-455A-B3E7-CBAFD725345A}"/>
+    <workbookView xWindow="20985" yWindow="2145" windowWidth="13890" windowHeight="15465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>说明</t>
   </si>
@@ -173,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bufferRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>均衡折溢价（%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大价差率（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大深度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,18 +220,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxDepth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最大打单深度(tick)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发策略事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B端行情、A端持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冲深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedge_depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.判断是否对冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.根据B行情、A持仓计算最优挂单位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）净头寸(positionA/volume_A+positionB),按对冲阈值取整即为对冲数量，按对冲深度下单对冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）若本次有对冲或者之前有未完成对冲单则跳过本次循环中的所有下单逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冲单下单深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对冲撤补距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rehedge_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档对冲单远离当前对手价距离时撤补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）若未完成对冲单距离对手盘价格大于对冲撤补距离则撤单</t>
+  </si>
+  <si>
+    <t>1）计算当前A持仓对应档位：n=round(positionA/volume_A/unit_per_distance),则买卖档位（nbid,nask)分别对应n-1、n+1档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）计算买盘折溢价率bidDPRate=basicDPRate+distanceRate*nbid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）计算卖盘折溢价率askDPRate=basicDPRate+distanceRate*nask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）计算买盘价格bestbid=（1+bidDPRate)*B_bid*multiply/volume_A,改价格对应B端买盘配对即为买盘折溢价率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）计算卖盘价格bestask=（1+askDPRate)*B_ask*multiply/volume_A,该价格对应B端卖盘配对即为卖盘折溢价率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.挂单位置调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂单容忍距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容忍数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerance_distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerance_volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同quoter策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大价差率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）挂单缓冲距离调整，bestbid-=buffer_rate, bestask+=buffer_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）最大深度调整，打单时，若bestbid大于marketask超过max_depth,调整bestbid=marketask-max_depth，卖单同理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）最大价差率调整，若bestbid与bestask价差超过max_spread,且没有打单，调整远端价格进至最大价差位置或不超过近端距离的位置两者的更远位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4)容忍度调整，同Quoter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.主动策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）若主动打单开启，且判断挂单没有打单，判断足量盘口价格是否满足建仓或平仓折溢价率，若满足则A端按实际深度，B端按对冲深度双边下单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,12 +400,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -284,9 +429,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,74 +445,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -381,7 +464,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -416,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +551,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -662,255 +745,448 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A669815-444C-402F-800F-FE49682A3D5E}">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
